--- a/data/han/수질/청평댐3_2020.xlsx
+++ b/data/han/수질/청평댐3_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\han\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="104">
   <si>
     <t>dt</t>
   </si>
@@ -324,53 +331,36 @@
   </si>
   <si>
     <t>2020-07-24 12:00</t>
-  </si>
-  <si>
-    <t>2020-08-08 12:00</t>
-  </si>
-  <si>
-    <t>20200824</t>
-  </si>
-  <si>
-    <t>2020-08-16 12:00</t>
-  </si>
-  <si>
-    <t>2020-08-24 12:00</t>
-  </si>
-  <si>
-    <t>2020-09-08 12:00</t>
-  </si>
-  <si>
-    <t>20200921</t>
-  </si>
-  <si>
-    <t>2020-09-16 12:00</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -388,7 +378,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -396,16 +392,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,10 +418,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -663,83 +667,81 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.89" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1004,16 +1006,16 @@
         <v>75</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AD2" s="2">
         <v>1.7689999999999999</v>
       </c>
       <c r="AE2" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF2" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG2">
         <v>120</v>
@@ -1031,28 +1033,28 @@
         <v>2.2530000000000001</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AN2" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" s="4">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ2" s="2">
         <v>2.1760000000000002</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS2" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1283,22 +1285,22 @@
         <v>81</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD5" s="2">
         <v>1.0529999999999999</v>
       </c>
       <c r="AE5" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF5" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AG5">
         <v>113</v>
       </c>
       <c r="AH5" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI5" s="4">
         <v>1.8</v>
@@ -1313,25 +1315,25 @@
         <v>0.01</v>
       </c>
       <c r="AN5" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AO5" s="4">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ5" s="2">
         <v>1.627</v>
       </c>
       <c r="AR5" s="2">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS5" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1562,16 +1564,16 @@
         <v>85</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD8" s="2">
         <v>1.379</v>
       </c>
       <c r="AE8" s="4">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF8" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG8">
         <v>119</v>
@@ -1583,13 +1585,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AJ8" s="4">
-        <v>13.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AK8" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AL8" s="2">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN8">
         <v>9</v>
@@ -1598,19 +1600,19 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ8" s="2">
         <v>1.571</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS8" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1841,13 +1843,13 @@
         <v>89</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD11" s="2">
         <v>0.88100000000000001</v>
       </c>
       <c r="AE11" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF11" s="4">
         <v>3.5</v>
@@ -1856,40 +1858,40 @@
         <v>119</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI11" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="AJ11" s="4">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK11" s="2">
         <v>1.5620000000000001</v>
       </c>
       <c r="AL11" s="2">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AN11" s="4">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AO11" s="4">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ11" s="2">
         <v>1.4930000000000001</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS11" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>89</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD12" s="2">
         <v>0.56100000000000005</v>
@@ -1981,10 +1983,10 @@
         <v>119</v>
       </c>
       <c r="AH12" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI12" s="4">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AJ12" s="4">
         <v>11.9</v>
@@ -1993,10 +1995,10 @@
         <v>1.6850000000000001</v>
       </c>
       <c r="AL12" s="2">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AN12" s="4">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AO12" s="4">
         <v>14.6</v>
@@ -2008,13 +2010,13 @@
         <v>1.585</v>
       </c>
       <c r="AR12" s="2">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>89</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD13" s="2">
         <v>0.752</v>
@@ -2100,7 +2102,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF13" s="4">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AG13">
         <v>119</v>
@@ -2109,22 +2111,22 @@
         <v>1.3</v>
       </c>
       <c r="AI13" s="4">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AJ13" s="4">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK13" s="2">
         <v>1.7789999999999999</v>
       </c>
       <c r="AL13" s="2">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AN13" s="4">
         <v>11.1</v>
       </c>
       <c r="AO13" s="4">
-        <v>17.300000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -2133,13 +2135,13 @@
         <v>1.615</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS13" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>93</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD14" s="2">
         <v>1.083</v>
@@ -2225,16 +2227,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG14">
         <v>121</v>
       </c>
       <c r="AH14" s="4">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI14" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AJ14" s="4">
         <v>9.8000000000000007</v>
@@ -2243,28 +2245,28 @@
         <v>1.3260000000000001</v>
       </c>
       <c r="AL14" s="2">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN14" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="AO14" s="4">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ14" s="5">
-        <v>1.3100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="AR14" s="2">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS14" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -2341,16 +2343,16 @@
         <v>93</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD15" s="2">
         <v>1.1160000000000001</v>
       </c>
       <c r="AE15" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF15" s="4">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG15">
         <v>118</v>
@@ -2359,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="AI15" s="4">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ15" s="4">
         <v>10.199999999999999</v>
@@ -2368,28 +2370,28 @@
         <v>1.367</v>
       </c>
       <c r="AL15" s="2">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN15" s="4">
-        <v>16.300000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="AO15" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ15" s="2">
         <v>1.3140000000000001</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS15" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2466,13 +2468,13 @@
         <v>93</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.087999999999999995</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AD16" s="2">
         <v>1.105</v>
       </c>
       <c r="AE16" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF16">
         <v>4</v>
@@ -2481,19 +2483,19 @@
         <v>130</v>
       </c>
       <c r="AH16" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AI16" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AJ16" s="4">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK16" s="2">
         <v>1.595</v>
       </c>
       <c r="AL16" s="2">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN16" s="4">
         <v>13.9</v>
@@ -2502,19 +2504,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ16" s="5">
         <v>1.54</v>
       </c>
       <c r="AR16" s="2">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS16" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -2591,25 +2593,25 @@
         <v>97</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD17" s="5">
         <v>1.0900000000000001</v>
       </c>
       <c r="AE17" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF17" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG17">
         <v>122</v>
       </c>
       <c r="AH17" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI17" s="4">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AJ17" s="4">
         <v>9.6999999999999993</v>
@@ -2618,28 +2620,28 @@
         <v>1.371</v>
       </c>
       <c r="AL17" s="2">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN17" s="4">
-        <v>27.399999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="AO17" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ17" s="2">
         <v>1.2350000000000001</v>
       </c>
       <c r="AR17" s="2">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS17" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -2716,55 +2718,55 @@
         <v>97</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD18" s="2">
         <v>1.0229999999999999</v>
       </c>
       <c r="AE18" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF18" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG18">
         <v>110</v>
       </c>
       <c r="AH18" s="4">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI18" s="4">
         <v>1.8</v>
       </c>
       <c r="AJ18" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AK18" s="2">
         <v>1.353</v>
       </c>
       <c r="AL18" s="2">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN18" s="4">
-        <v>22.899999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="AO18" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="2">
         <v>1.345</v>
       </c>
       <c r="AR18" s="2">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2841,55 +2843,55 @@
         <v>97</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AD19" s="2">
         <v>1.022</v>
       </c>
       <c r="AE19" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF19" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG19">
         <v>120</v>
       </c>
       <c r="AH19" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI19" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AJ19" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AK19" s="5">
-        <v>1.4299999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="AL19" s="2">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AN19" s="4">
-        <v>22.600000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="AO19" s="4">
         <v>8.6999999999999993</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ19" s="2">
         <v>1.3919999999999999</v>
       </c>
       <c r="AR19" s="2">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS19" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -2966,22 +2968,22 @@
         <v>101</v>
       </c>
       <c r="AC20" s="5">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AD20" s="2">
         <v>0.89400000000000002</v>
       </c>
       <c r="AE20" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF20" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG20">
         <v>120</v>
       </c>
       <c r="AH20" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2993,28 +2995,28 @@
         <v>1.139</v>
       </c>
       <c r="AL20" s="2">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AN20" s="4">
-        <v>23.199999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="AO20" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="2">
         <v>1.129</v>
       </c>
       <c r="AR20" s="2">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS20" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -3091,55 +3093,55 @@
         <v>101</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.087999999999999995</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AD21" s="2">
         <v>0.92500000000000004</v>
       </c>
       <c r="AE21" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF21" s="4">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG21">
         <v>120</v>
       </c>
       <c r="AH21" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI21" s="4">
         <v>1.3</v>
       </c>
       <c r="AJ21" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AK21" s="2">
         <v>1.286</v>
       </c>
       <c r="AL21" s="2">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN21" s="4">
-        <v>22.699999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AO21" s="4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ21" s="2">
         <v>1.2529999999999999</v>
       </c>
       <c r="AR21" s="2">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS21" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3216,805 +3218,57 @@
         <v>101</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AD22" s="5">
-        <v>0.89000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AE22">
         <v>8</v>
       </c>
       <c r="AF22" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG22">
         <v>116</v>
       </c>
       <c r="AH22" s="4">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI22">
         <v>3</v>
       </c>
       <c r="AJ22" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AK22" s="2">
         <v>1.2889999999999999</v>
       </c>
       <c r="AL22" s="2">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN22" s="4">
-        <v>22.600000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="AO22" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AP22" s="2">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ22" s="2">
         <v>1.218</v>
       </c>
       <c r="AR22" s="2">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS22" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F23" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s">
-        <v>68</v>
-      </c>
-      <c r="W23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="AG23">
-        <v>105</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0.034000000000000002</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0.0060000000000000001</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>1.7390000000000001</v>
-      </c>
-      <c r="AR23" s="2">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="AS23" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F24" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s">
-        <v>68</v>
-      </c>
-      <c r="W24" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0.052999999999999999</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AG24">
-        <v>99</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>1.833</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0.042000000000000003</v>
-      </c>
-      <c r="AN24">
-        <v>23</v>
-      </c>
-      <c r="AO24" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0.0070000000000000001</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>1.706</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>0.014999999999999999</v>
-      </c>
-      <c r="AS24" s="4">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F25" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" t="s">
-        <v>69</v>
-      </c>
-      <c r="X25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>0.053999999999999999</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG25">
-        <v>108</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>2.7999999999999998</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>9.4000000000000004</v>
-      </c>
-      <c r="AK25" s="2">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>0.041000000000000002</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>25.199999999999999</v>
-      </c>
-      <c r="AO25">
-        <v>17</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>0.0070000000000000001</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="AR25" s="2">
-        <v>0.012</v>
-      </c>
-      <c r="AS25" s="4">
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F26" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" t="s">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W26" t="s">
-        <v>69</v>
-      </c>
-      <c r="X26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>2.7000000000000002</v>
-      </c>
-      <c r="AG26">
-        <v>101</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>1.589</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>0.044999999999999998</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>19.800000000000001</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AP26" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>1.583</v>
-      </c>
-      <c r="AR26" s="2">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F27" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" t="s">
-        <v>73</v>
-      </c>
-      <c r="T27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s">
-        <v>68</v>
-      </c>
-      <c r="W27" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0.017999999999999999</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>2.8999999999999999</v>
-      </c>
-      <c r="AG27">
-        <v>98</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI27" s="4">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AJ27" s="4">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AK27" s="2">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="AL27" s="5">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="AR27" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="AS27" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>37.707999999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <v>127.47836100000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>1.355</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="AG28">
-        <v>95</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0.025999999999999999</v>
-      </c>
-      <c r="AS28" s="4">
-        <v>1.6000000000000001</v>
-      </c>
-    </row>
-    <row r="29"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>